--- a/proj7/test/test용사전엑셀.xlsx
+++ b/proj7/test/test용사전엑셀.xlsx
@@ -11,12 +11,96 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
-  <si>
-    <t>한국어</t>
-  </si>
-  <si>
-    <t>영어</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+  <si>
+    <t>ko</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>jap</t>
+  </si>
+  <si>
+    <t>산독끼</t>
+  </si>
+  <si>
+    <t>Zinrabit</t>
+  </si>
+  <si>
+    <t>景福宮</t>
+  </si>
+  <si>
+    <t>꼬라니</t>
+  </si>
+  <si>
+    <t>Zingorani</t>
+  </si>
+  <si>
+    <t>ソウルの森</t>
+  </si>
+  <si>
+    <t>바나나</t>
+  </si>
+  <si>
+    <t>banana</t>
+  </si>
+  <si>
+    <t>黄梅山郡立公園</t>
+  </si>
+  <si>
+    <t>커피</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>晋州城</t>
+  </si>
+  <si>
+    <t>안경</t>
+  </si>
+  <si>
+    <t>glasses</t>
+  </si>
+  <si>
+    <t>城山日出峰</t>
+  </si>
+  <si>
+    <t>바위</t>
+  </si>
+  <si>
+    <t>rock</t>
+  </si>
+  <si>
+    <t>漢拏山国立公園</t>
+  </si>
+  <si>
+    <t>시험</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>済州オルレ道</t>
+  </si>
+  <si>
+    <t>저장</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>牛島</t>
+  </si>
+  <si>
+    <t>긍정적인</t>
+  </si>
+  <si>
+    <t>positve</t>
+  </si>
+  <si>
+    <t>榧子林</t>
   </si>
   <si>
     <t>개</t>
@@ -25,71 +109,23 @@
     <t>dog</t>
   </si>
   <si>
+    <t>済州石文化公園</t>
+  </si>
+  <si>
     <t>고양이</t>
   </si>
   <si>
     <t>cat</t>
   </si>
   <si>
-    <t>바나나</t>
-  </si>
-  <si>
-    <t>banana</t>
-  </si>
-  <si>
-    <t>커피</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>안경</t>
-  </si>
-  <si>
-    <t>glasses</t>
-  </si>
-  <si>
-    <t>바위</t>
-  </si>
-  <si>
-    <t>rock</t>
-  </si>
-  <si>
-    <t>시험</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>저장</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>긍정적인</t>
-  </si>
-  <si>
-    <t>positve</t>
-  </si>
-  <si>
-    <t>산독끼</t>
-  </si>
-  <si>
-    <t>Zinrabit</t>
-  </si>
-  <si>
-    <t>꼬라니</t>
-  </si>
-  <si>
-    <t>Zingorani</t>
+    <t>修徳寺</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -97,9 +133,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="8.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8.0"/>
+      <color rgb="FF000000"/>
+      <name val="&quot;맑은 고딕&quot;"/>
+    </font>
+    <font>
+      <sz val="8.0"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+    </font>
+    <font>
+      <sz val="8.0"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
+      <name val="&quot;맑은 고딕&quot;"/>
     </font>
   </fonts>
   <fills count="2">
@@ -116,12 +167,21 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -346,94 +406,140 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
+      <c r="A2" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
+      <c r="A3" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
+      <c r="A4" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
+      <c r="A5" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
+      <c r="A6" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
+      <c r="A7" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
+      <c r="A8" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
+      <c r="A9" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>18</v>
+      <c r="A10" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>20</v>
+      <c r="A11" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
-        <v>22</v>
+      <c r="A12" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>23</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
